--- a/Dashboards/Data final/salarios_series.xlsx
+++ b/Dashboards/Data final/salarios_series.xlsx
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>292</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>318</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>425</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37">
